--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H2">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I2">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J2">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>0.4194888245548888</v>
+        <v>0.2572102888986667</v>
       </c>
       <c r="R2">
-        <v>3.775399420994</v>
+        <v>2.314892600088</v>
       </c>
       <c r="S2">
-        <v>0.002167311112279448</v>
+        <v>0.001617365103022658</v>
       </c>
       <c r="T2">
-        <v>0.002167311112279449</v>
+        <v>0.001617365103022658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H3">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I3">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J3">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
-        <v>2.574536857429333</v>
+        <v>2.765338953728</v>
       </c>
       <c r="R3">
-        <v>23.170831716864</v>
+        <v>24.888050583552</v>
       </c>
       <c r="S3">
-        <v>0.01330148030999453</v>
+        <v>0.01738873954436137</v>
       </c>
       <c r="T3">
-        <v>0.01330148030999453</v>
+        <v>0.01738873954436136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H4">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I4">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J4">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>2.132729277456222</v>
+        <v>1.743171181285334</v>
       </c>
       <c r="R4">
-        <v>19.194563497106</v>
+        <v>15.688540631568</v>
       </c>
       <c r="S4">
-        <v>0.01101885817201258</v>
+        <v>0.01096124206102976</v>
       </c>
       <c r="T4">
-        <v>0.01101885817201258</v>
+        <v>0.01096124206102976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H5">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I5">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J5">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>0.8209950928715556</v>
+        <v>0.731628767488</v>
       </c>
       <c r="R5">
-        <v>7.388955835844</v>
+        <v>6.584658907392</v>
       </c>
       <c r="S5">
-        <v>0.004241714400366813</v>
+        <v>0.004600557940233717</v>
       </c>
       <c r="T5">
-        <v>0.004241714400366814</v>
+        <v>0.004600557940233716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3262753333333333</v>
+        <v>0.350456</v>
       </c>
       <c r="H6">
-        <v>0.978826</v>
+        <v>1.051368</v>
       </c>
       <c r="I6">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="J6">
-        <v>0.04000942411912322</v>
+        <v>0.04525354269107001</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N6">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q6">
-        <v>1.796180295185333</v>
+        <v>1.699341752101334</v>
       </c>
       <c r="R6">
-        <v>16.165622656668</v>
+        <v>15.294075768912</v>
       </c>
       <c r="S6">
-        <v>0.009280060124469849</v>
+        <v>0.01068563804242251</v>
       </c>
       <c r="T6">
-        <v>0.009280060124469849</v>
+        <v>0.01068563804242251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>16.419945</v>
       </c>
       <c r="I7">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J7">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N7">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q7">
-        <v>7.036984537911666</v>
+        <v>4.017031902388333</v>
       </c>
       <c r="R7">
-        <v>63.332860841205</v>
+        <v>36.153287121495</v>
       </c>
       <c r="S7">
-        <v>0.03635695134938934</v>
+        <v>0.02525951525683811</v>
       </c>
       <c r="T7">
-        <v>0.03635695134938934</v>
+        <v>0.02525951525683811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>16.419945</v>
       </c>
       <c r="I8">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J8">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q8">
         <v>43.18822099072</v>
@@ -948,10 +948,10 @@
         <v>388.69398891648</v>
       </c>
       <c r="S8">
-        <v>0.2231342190631359</v>
+        <v>0.2715720346612591</v>
       </c>
       <c r="T8">
-        <v>0.2231342190631359</v>
+        <v>0.271572034661259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>16.419945</v>
       </c>
       <c r="I9">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J9">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N9">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O9">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P9">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q9">
-        <v>35.77683616467166</v>
+        <v>27.22431624539667</v>
       </c>
       <c r="R9">
-        <v>321.9915254820449</v>
+        <v>245.01884620857</v>
       </c>
       <c r="S9">
-        <v>0.1848429089003021</v>
+        <v>0.1711893378662802</v>
       </c>
       <c r="T9">
-        <v>0.1848429089003021</v>
+        <v>0.1711893378662802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>16.419945</v>
       </c>
       <c r="I10">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J10">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N10">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q10">
-        <v>13.77230914403667</v>
+        <v>11.42635511312</v>
       </c>
       <c r="R10">
-        <v>123.95078229633</v>
+        <v>102.83719601808</v>
       </c>
       <c r="S10">
-        <v>0.07115536076864637</v>
+        <v>0.07185011180476381</v>
       </c>
       <c r="T10">
-        <v>0.07115536076864638</v>
+        <v>0.07185011180476379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>16.419945</v>
       </c>
       <c r="I11">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="J11">
-        <v>0.6711637650794694</v>
+        <v>0.7067560378882765</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N11">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O11">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P11">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q11">
-        <v>30.13117924639</v>
+        <v>26.53980157823667</v>
       </c>
       <c r="R11">
-        <v>271.18061321751</v>
+        <v>238.85821420413</v>
       </c>
       <c r="S11">
-        <v>0.1556743249979956</v>
+        <v>0.1668850382991353</v>
       </c>
       <c r="T11">
-        <v>0.1556743249979956</v>
+        <v>0.1668850382991353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H12">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I12">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J12">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N12">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O12">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P12">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q12">
-        <v>1.698974610016667</v>
+        <v>0.5882268139083333</v>
       </c>
       <c r="R12">
-        <v>15.29077149015</v>
+        <v>5.294041325175</v>
       </c>
       <c r="S12">
-        <v>0.008777841830892346</v>
+        <v>0.003698831510789043</v>
       </c>
       <c r="T12">
-        <v>0.008777841830892346</v>
+        <v>0.003698831510789042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H13">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I13">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J13">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.672064</v>
       </c>
       <c r="O13">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P13">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q13">
-        <v>10.4271496576</v>
+        <v>6.324189164799999</v>
       </c>
       <c r="R13">
-        <v>93.84434691839999</v>
+        <v>56.9177024832</v>
       </c>
       <c r="S13">
-        <v>0.0538724180466465</v>
+        <v>0.03976716057455721</v>
       </c>
       <c r="T13">
-        <v>0.0538724180466465</v>
+        <v>0.0397671605745572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H14">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I14">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J14">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N14">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O14">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P14">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q14">
-        <v>8.637781700816666</v>
+        <v>3.986543596116667</v>
       </c>
       <c r="R14">
-        <v>77.74003530735</v>
+        <v>35.87889236505</v>
       </c>
       <c r="S14">
-        <v>0.04462755422742966</v>
+        <v>0.02506780160951397</v>
       </c>
       <c r="T14">
-        <v>0.04462755422742967</v>
+        <v>0.02506780160951397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H15">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I15">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J15">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N15">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O15">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P15">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q15">
-        <v>3.325117943766667</v>
+        <v>1.6731976808</v>
       </c>
       <c r="R15">
-        <v>29.9260614939</v>
+        <v>15.0587791272</v>
       </c>
       <c r="S15">
-        <v>0.01717939703593302</v>
+        <v>0.01052124139734751</v>
       </c>
       <c r="T15">
-        <v>0.01717939703593303</v>
+        <v>0.01052124139734751</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.32145</v>
+        <v>0.8014749999999999</v>
       </c>
       <c r="H16">
-        <v>3.96435</v>
+        <v>2.404425</v>
       </c>
       <c r="I16">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="J16">
-        <v>0.1620424472854687</v>
+        <v>0.1034925443659841</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N16">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O16">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P16">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q16">
-        <v>7.274722323700001</v>
+        <v>3.886307926716667</v>
       </c>
       <c r="R16">
-        <v>65.47250091330001</v>
+        <v>34.97677134045</v>
       </c>
       <c r="S16">
-        <v>0.03758523614456711</v>
+        <v>0.0244375092737764</v>
       </c>
       <c r="T16">
-        <v>0.03758523614456711</v>
+        <v>0.0244375092737764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3933246666666667</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H17">
-        <v>1.179974</v>
+        <v>1.914535</v>
       </c>
       <c r="I17">
-        <v>0.04823133040554533</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J17">
-        <v>0.04823133040554532</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N17">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O17">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P17">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q17">
-        <v>0.5056934595784445</v>
+        <v>0.4683784369094444</v>
       </c>
       <c r="R17">
-        <v>4.551241136206</v>
+        <v>4.215405932185</v>
       </c>
       <c r="S17">
-        <v>0.002612691900706387</v>
+        <v>0.002945212425635443</v>
       </c>
       <c r="T17">
-        <v>0.002612691900706387</v>
+        <v>0.002945212425635442</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3933246666666667</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H18">
-        <v>1.179974</v>
+        <v>1.914535</v>
       </c>
       <c r="I18">
-        <v>0.04823133040554533</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J18">
-        <v>0.04823133040554532</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.672064</v>
       </c>
       <c r="O18">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P18">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q18">
-        <v>3.103602227370667</v>
+        <v>5.035666116693333</v>
       </c>
       <c r="R18">
-        <v>27.932420046336</v>
+        <v>45.32099505023999</v>
       </c>
       <c r="S18">
-        <v>0.01603492441690912</v>
+        <v>0.03166479335833303</v>
       </c>
       <c r="T18">
-        <v>0.01603492441690912</v>
+        <v>0.03166479335833303</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3933246666666667</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H19">
-        <v>1.179974</v>
+        <v>1.914535</v>
       </c>
       <c r="I19">
-        <v>0.04823133040554533</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J19">
-        <v>0.04823133040554532</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N19">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O19">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P19">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q19">
-        <v>2.571003525077111</v>
+        <v>3.174304560878889</v>
       </c>
       <c r="R19">
-        <v>23.139031725694</v>
+        <v>28.56874104791</v>
       </c>
       <c r="S19">
-        <v>0.01328322516224781</v>
+        <v>0.01996035790447647</v>
       </c>
       <c r="T19">
-        <v>0.01328322516224781</v>
+        <v>0.01996035790447646</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3933246666666667</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H20">
-        <v>1.179974</v>
+        <v>1.914535</v>
       </c>
       <c r="I20">
-        <v>0.04823133040554533</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J20">
-        <v>0.04823133040554532</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N20">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O20">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P20">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q20">
-        <v>0.989708961261778</v>
+        <v>1.332291721226667</v>
       </c>
       <c r="R20">
-        <v>8.907380651356</v>
+        <v>11.99062549104</v>
       </c>
       <c r="S20">
-        <v>0.005113383489873002</v>
+        <v>0.008377589194369012</v>
       </c>
       <c r="T20">
-        <v>0.005113383489873002</v>
+        <v>0.00837758919436901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3933246666666667</v>
+        <v>0.6381783333333333</v>
       </c>
       <c r="H21">
-        <v>1.179974</v>
+        <v>1.914535</v>
       </c>
       <c r="I21">
-        <v>0.04823133040554533</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="J21">
-        <v>0.04823133040554532</v>
+        <v>0.08240643747579127</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N21">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O21">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P21">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q21">
-        <v>2.165293982414667</v>
+        <v>3.094491425798889</v>
       </c>
       <c r="R21">
-        <v>19.487645841732</v>
+        <v>27.85042283219</v>
       </c>
       <c r="S21">
-        <v>0.01118710543580901</v>
+        <v>0.01945848459297732</v>
       </c>
       <c r="T21">
-        <v>0.01118710543580901</v>
+        <v>0.01945848459297732</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.640597</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H22">
-        <v>1.921791</v>
+        <v>1.44256</v>
       </c>
       <c r="I22">
-        <v>0.07855303311039341</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J22">
-        <v>0.0785530331103934</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N22">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O22">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P22">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q22">
-        <v>0.8236089433976665</v>
+        <v>0.3529128472177778</v>
       </c>
       <c r="R22">
-        <v>7.412480490578999</v>
+        <v>3.17621562496</v>
       </c>
       <c r="S22">
-        <v>0.004255218996817241</v>
+        <v>0.002219152763843265</v>
       </c>
       <c r="T22">
-        <v>0.004255218996817241</v>
+        <v>0.002219152763843264</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.640597</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H23">
-        <v>1.921791</v>
+        <v>1.44256</v>
       </c>
       <c r="I23">
-        <v>0.07855303311039341</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J23">
-        <v>0.0785530331103934</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>23.672064</v>
       </c>
       <c r="O23">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P23">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q23">
-        <v>5.054751060736</v>
+        <v>3.794263627093334</v>
       </c>
       <c r="R23">
-        <v>45.49275954662399</v>
+        <v>34.14837264384</v>
       </c>
       <c r="S23">
-        <v>0.02611563765819941</v>
+        <v>0.02385872512489816</v>
       </c>
       <c r="T23">
-        <v>0.02611563765819941</v>
+        <v>0.02385872512489816</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.640597</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H24">
-        <v>1.921791</v>
+        <v>1.44256</v>
       </c>
       <c r="I24">
-        <v>0.07855303311039341</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J24">
-        <v>0.0785530331103934</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N24">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O24">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P24">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q24">
-        <v>4.187322293085666</v>
+        <v>2.391768647395556</v>
       </c>
       <c r="R24">
-        <v>37.68590063777099</v>
+        <v>21.52591782656</v>
       </c>
       <c r="S24">
-        <v>0.02163402123079099</v>
+        <v>0.01503969052468697</v>
       </c>
       <c r="T24">
-        <v>0.021634021230791</v>
+        <v>0.01503969052468697</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.640597</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H25">
-        <v>1.921791</v>
+        <v>1.44256</v>
       </c>
       <c r="I25">
-        <v>0.07855303311039341</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J25">
-        <v>0.0785530331103934</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N25">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O25">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P25">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q25">
-        <v>1.611911596672667</v>
+        <v>1.003852499626667</v>
       </c>
       <c r="R25">
-        <v>14.507204370054</v>
+        <v>9.034672496639999</v>
       </c>
       <c r="S25">
-        <v>0.008328026185650299</v>
+        <v>0.006312329139048887</v>
       </c>
       <c r="T25">
-        <v>0.008328026185650299</v>
+        <v>0.006312329139048886</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.640597</v>
+        <v>0.4808533333333334</v>
       </c>
       <c r="H26">
-        <v>1.921791</v>
+        <v>1.44256</v>
       </c>
       <c r="I26">
-        <v>0.07855303311039341</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="J26">
-        <v>0.0785530331103934</v>
+        <v>0.06209143757887814</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N26">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O26">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P26">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q26">
-        <v>3.526554388282</v>
+        <v>2.331631206115556</v>
       </c>
       <c r="R26">
-        <v>31.738989494538</v>
+        <v>20.98468085504</v>
       </c>
       <c r="S26">
-        <v>0.01822012903893546</v>
+        <v>0.01466154002640086</v>
       </c>
       <c r="T26">
-        <v>0.01822012903893545</v>
+        <v>0.01466154002640086</v>
       </c>
     </row>
   </sheetData>
